--- a/clcore_ig/output/StructureDefinition-CoreRolClinicoCl.xlsx
+++ b/clcore_ig/output/StructureDefinition-CoreRolClinicoCl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="346">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Este Perfil ha sido desarrollado para cubrir las necesidades del Caso de Uso de Receta Electrónica. Sin embargo, se ha modelado con el fin de cubrir las necesidades nacionales de un Recurso de Especialidad Médica para la denominación de Prescriptor en Chile</t>
+    <t>Este Perfil se ha modelado con el fin de cubrir las necesidades la función de Prestador en una organización de Chile por ejemplo: Hospital, Clínica, Cesfam, farmacias, etc</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -521,9 +521,6 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>STF-7</t>
   </si>
   <si>
@@ -653,7 +650,7 @@
 </t>
   </si>
   <si>
-    <t>Referencia al Prestador  especialidad</t>
+    <t>Referencia al Prestador</t>
   </si>
   <si>
     <t>La referencia al prestador de salud, al cual se le quieren asignar funciones o actividades de especialidad.</t>
@@ -751,11 +748,11 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl)
 </t>
   </si>
   <si>
-    <t>Referencia a la organización donde el presador cumple roles</t>
+    <t>Referencia a la organización donde el prestador cumple roles</t>
   </si>
   <si>
     <t>La referencia a la organización en donde el prestador individual cumple roles.</t>
@@ -801,10 +798,10 @@
 </t>
   </si>
   <si>
-    <t>Roles which this practitioner may perform</t>
-  </si>
-  <si>
-    <t>Roles which this practitioner is authorized to perform for the organization.</t>
+    <t>Rol que cumple un profesional en una organización</t>
+  </si>
+  <si>
+    <t>Rol que cumple un profesional en una organización.</t>
   </si>
   <si>
     <t>A person may have more than one role.</t>
@@ -831,19 +828,16 @@
     <t>PractitionerRole.specialty</t>
   </si>
   <si>
-    <t>Definición de la especialidad médica según DEIS</t>
-  </si>
-  <si>
-    <t>Definición de la especialidad médica según DEIS, en el decreto correspondiete. la tabla sigue siendo extensible ante futuros elementos agregados a esta</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Códigos de Especialidad DEIS</t>
-  </si>
-  <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSEspecialidadesDeisCL</t>
+    <t>Definición de la especialidad</t>
+  </si>
+  <si>
+    <t>Definición de la especialidad, en el decreto correspondiete. la tabla sigue siendo extensible ante futuros elementos agregados a esta</t>
+  </si>
+  <si>
+    <t>Códigos de Especialidades</t>
+  </si>
+  <si>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSEspecialidadesCL</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -858,11 +852,11 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreLocalizacionCl)
 </t>
   </si>
   <si>
-    <t>Referencia a la ubicación donde el presador cumple roles</t>
+    <t>Referencia a la ubicación donde el prestador cumple roles</t>
   </si>
   <si>
     <t>La referencia a la ubicación en donde el prestador individual cumple roles.</t>
@@ -994,6 +988,9 @@
   </si>
   <si>
     <t>Indicates which days of the week are available between the start and end Times.</t>
+  </si>
+  <si>
+    <t>required</t>
   </si>
   <si>
     <t>The days of the week.</t>
@@ -1437,7 +1434,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.25" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.59375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1452,7 +1449,7 @@
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.83203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.86328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.00390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -2780,7 +2777,7 @@
         <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>78</v>
@@ -2834,24 +2831,24 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2874,17 +2871,17 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -2933,7 +2930,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2948,24 +2945,24 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2988,13 +2985,13 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3045,7 +3042,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3063,7 +3060,7 @@
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3074,10 +3071,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3106,7 +3103,7 @@
         <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
         <v>138</v>
@@ -3147,19 +3144,19 @@
         <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3177,7 +3174,7 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3188,10 +3185,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3214,16 +3211,16 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3273,7 +3270,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3282,16 +3279,16 @@
         <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3302,10 +3299,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3328,68 +3325,68 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3398,16 +3395,16 @@
         <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3418,10 +3415,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3444,13 +3441,13 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3501,7 +3498,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3519,7 +3516,7 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3530,10 +3527,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3556,13 +3553,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3613,7 +3610,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3631,7 +3628,7 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -3642,10 +3639,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3674,7 +3671,7 @@
         <v>136</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>138</v>
@@ -3715,19 +3712,19 @@
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AC20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AC20" t="s" s="2">
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3745,7 +3742,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -3756,10 +3753,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3782,16 +3779,16 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3841,7 +3838,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3850,7 +3847,7 @@
         <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>101</v>
@@ -3870,10 +3867,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3899,13 +3896,13 @@
         <v>103</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3931,31 +3928,31 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Z22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -3984,10 +3981,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4013,13 +4010,13 @@
         <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4069,7 +4066,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4087,7 +4084,7 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4098,10 +4095,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4124,16 +4121,16 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4183,7 +4180,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4212,10 +4209,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4238,13 +4235,13 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4295,7 +4292,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4313,7 +4310,7 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4324,10 +4321,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4350,13 +4347,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4407,7 +4404,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4425,7 +4422,7 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4436,10 +4433,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4468,7 +4465,7 @@
         <v>136</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>138</v>
@@ -4509,19 +4506,19 @@
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AC27" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AC27" t="s" s="2">
+      <c r="AD27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AD27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4539,7 +4536,7 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4550,10 +4547,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4576,16 +4573,16 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="N28" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4635,7 +4632,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4644,7 +4641,7 @@
         <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>101</v>
@@ -4664,10 +4661,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4693,13 +4690,13 @@
         <v>103</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4725,31 +4722,31 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4778,10 +4775,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4807,13 +4804,13 @@
         <v>147</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4863,7 +4860,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4881,7 +4878,7 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4892,10 +4889,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4918,16 +4915,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="N31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4977,7 +4974,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5006,10 +5003,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5023,7 +5020,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>78</v>
@@ -5032,19 +5029,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5069,14 +5066,14 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5093,7 +5090,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5108,13 +5105,13 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AM32" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5122,10 +5119,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5148,13 +5145,13 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5181,14 +5178,14 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5205,7 +5202,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5220,13 +5217,13 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5234,10 +5231,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5260,13 +5257,13 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5317,7 +5314,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5335,21 +5332,21 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>275</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5372,13 +5369,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5429,7 +5426,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5447,7 +5444,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5458,10 +5455,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5490,7 +5487,7 @@
         <v>136</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>138</v>
@@ -5531,19 +5528,19 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AC36" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AC36" t="s" s="2">
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
+      <c r="AF36" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5561,7 +5558,7 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5572,10 +5569,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5598,16 +5595,16 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5657,7 +5654,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5666,7 +5663,7 @@
         <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>101</v>
@@ -5686,10 +5683,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5715,13 +5712,13 @@
         <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5747,31 +5744,31 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Z38" t="s" s="2">
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5800,10 +5797,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5829,13 +5826,13 @@
         <v>147</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5885,7 +5882,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -5903,7 +5900,7 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -5914,10 +5911,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5940,16 +5937,16 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5999,7 +5996,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6028,10 +6025,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6054,13 +6051,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6111,7 +6108,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6126,10 +6123,10 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6140,10 +6137,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6166,17 +6163,17 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6225,7 +6222,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6243,7 +6240,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6254,10 +6251,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6280,16 +6277,16 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6339,7 +6336,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6357,7 +6354,7 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6368,10 +6365,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6394,13 +6391,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6451,7 +6448,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6469,7 +6466,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6480,10 +6477,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6512,7 +6509,7 @@
         <v>136</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>138</v>
@@ -6565,7 +6562,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6583,7 +6580,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6594,14 +6591,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6623,10 +6620,10 @@
         <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>138</v>
@@ -6681,7 +6678,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6710,10 +6707,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6739,10 +6736,10 @@
         <v>109</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6769,14 +6766,14 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
       </c>
@@ -6793,7 +6790,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -6811,7 +6808,7 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -6822,10 +6819,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6851,10 +6848,10 @@
         <v>156</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6905,7 +6902,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -6923,7 +6920,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -6934,10 +6931,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6960,16 +6957,16 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7019,7 +7016,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7037,7 +7034,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7048,10 +7045,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7074,16 +7071,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7133,7 +7130,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7151,7 +7148,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7162,10 +7159,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7188,13 +7185,13 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7245,7 +7242,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7263,7 +7260,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7274,10 +7271,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7300,13 +7297,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7357,7 +7354,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7375,7 +7372,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7386,10 +7383,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7418,7 +7415,7 @@
         <v>136</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>138</v>
@@ -7471,7 +7468,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7489,7 +7486,7 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7500,14 +7497,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7529,10 +7526,10 @@
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>138</v>
@@ -7587,7 +7584,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7616,10 +7613,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7642,13 +7639,13 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7699,7 +7696,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
@@ -7717,7 +7714,7 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -7728,10 +7725,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7754,13 +7751,13 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7811,7 +7808,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -7829,7 +7826,7 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -7840,10 +7837,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7866,13 +7863,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7923,7 +7920,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -7941,7 +7938,7 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -7952,10 +7949,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7978,17 +7975,17 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8037,7 +8034,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8055,7 +8052,7 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
